--- a/modelo6/origen/ficheros/iniciales/plantilla - copia (2).xlsx
+++ b/modelo6/origen/ficheros/iniciales/plantilla - copia (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trabajo\catastro\modelo6\origen\ficheros\iniciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0174099E-5EF9-4595-8B1C-F86249070E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B8F168-BBEF-44CD-86EB-9E1C355BA1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
   <si>
     <t>MINISTERIO DE HACIENDA Y FUNCIÓN PÚBLICA</t>
   </si>
@@ -177,7 +177,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -282,6 +282,11 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -309,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -523,24 +528,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -696,8 +688,18 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,6 +757,116 @@
         <a:xfrm>
           <a:off x="79375" y="49213"/>
           <a:ext cx="571500" cy="600265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>49213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>269875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>154178</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38F37FE5-8945-4B65-9035-4C182062E767}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="79375" y="49213"/>
+          <a:ext cx="571500" cy="600265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>179293</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>129286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB7EA7F-AC4A-40A3-8537-54D7DBB6C02A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="56029" y="0"/>
+          <a:ext cx="885264" cy="924904"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1063,8 +1175,8 @@
   </sheetPr>
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:J15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1916,10 +2028,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1948,192 +2060,387 @@
     <col min="24" max="24" width="5.85546875" style="31" customWidth="1"/>
     <col min="25" max="25" width="7.42578125" style="31" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.5703125" style="31" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.28515625" style="31" customWidth="1"/>
     <col min="28" max="16384" width="11.5703125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:27" s="3" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+    </row>
+    <row r="3" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+    </row>
+    <row r="4" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+    </row>
+    <row r="5" spans="1:27" s="3" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:27" s="3" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="67"/>
+      <c r="Y6" s="67"/>
+      <c r="Z6" s="67"/>
+      <c r="AA6" s="67"/>
+    </row>
+    <row r="7" spans="1:27" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="40"/>
+    </row>
+    <row r="8" spans="1:27" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:27" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="40"/>
+    </row>
+    <row r="10" spans="1:27" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="40"/>
-    </row>
-    <row r="2" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-    </row>
-    <row r="3" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="65" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="40"/>
+    </row>
+    <row r="11" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="65"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+    </row>
+    <row r="12" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="64" t="s">
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="52"/>
-    </row>
-    <row r="4" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="52"/>
+    </row>
+    <row r="13" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B13" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C13" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D13" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E13" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F13" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G13" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H13" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I13" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J13" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K13" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L13" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M13" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="30"/>
-      <c r="O4" s="28" t="s">
+      <c r="N13" s="30"/>
+      <c r="O13" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="28" t="s">
+      <c r="P13" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="28" t="s">
+      <c r="Q13" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="28" t="s">
+      <c r="R13" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="S4" s="28" t="s">
+      <c r="S13" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="T4" s="28" t="s">
+      <c r="T13" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="U4" s="28" t="s">
+      <c r="U13" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="28" t="s">
+      <c r="V13" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="28" t="s">
+      <c r="W13" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="X4" s="28" t="s">
+      <c r="X13" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="Y4" s="28" t="s">
+      <c r="Y13" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="Z4" s="28" t="s">
+      <c r="Z13" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="AA4" s="28" t="s">
+      <c r="AA13" s="28" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:AA1"/>
-    <mergeCell ref="O3:AA3"/>
-    <mergeCell ref="A3:M3"/>
+  <mergeCells count="12">
+    <mergeCell ref="A10:AA10"/>
+    <mergeCell ref="O12:AA12"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A9:O9"/>
+    <mergeCell ref="P9:AA9"/>
+    <mergeCell ref="C2:F4"/>
+    <mergeCell ref="R2:U4"/>
+    <mergeCell ref="V2:AA4"/>
+    <mergeCell ref="A6:AA6"/>
+    <mergeCell ref="A7:O7"/>
+    <mergeCell ref="P7:AA7"/>
+    <mergeCell ref="G2:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="60" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2142,165 +2449,272 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA48"/>
+  <dimension ref="A1:AA57"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="15" width="11.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:27" s="3" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="V2" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+    </row>
+    <row r="3" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+    </row>
+    <row r="4" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="V4" s="69"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="69"/>
+    </row>
+    <row r="5" spans="1:27" s="3" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:27" s="3" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="57"/>
+      <c r="AA6" s="57"/>
+    </row>
+    <row r="7" spans="1:27" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="40"/>
+    </row>
+    <row r="8" spans="1:27" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:27" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="40"/>
+    </row>
+    <row r="10" spans="1:27" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="40"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-    </row>
-    <row r="3" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="22"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="23"/>
-      <c r="AA4" s="24"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="23"/>
-      <c r="AA5" s="24"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="23"/>
-      <c r="AA6" s="24"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="23"/>
-      <c r="AA7" s="24"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="23"/>
-      <c r="AA8" s="24"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="23"/>
-      <c r="AA9" s="24"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="23"/>
-      <c r="AA10" s="24"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="40"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
-      <c r="M11" s="24"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="23"/>
-      <c r="AA11" s="24"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
-      <c r="M12" s="24"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="22"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="23"/>
-      <c r="AA12" s="24"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="22"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="23"/>
@@ -2424,54 +2838,63 @@
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="23"/>
       <c r="M30" s="24"/>
+      <c r="N30" s="3"/>
       <c r="O30" s="23"/>
       <c r="AA30" s="24"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="23"/>
       <c r="M31" s="24"/>
+      <c r="N31" s="3"/>
       <c r="O31" s="23"/>
       <c r="AA31" s="24"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="23"/>
       <c r="M32" s="24"/>
+      <c r="N32" s="3"/>
       <c r="O32" s="23"/>
       <c r="AA32" s="24"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="23"/>
       <c r="M33" s="24"/>
+      <c r="N33" s="3"/>
       <c r="O33" s="23"/>
       <c r="AA33" s="24"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="23"/>
       <c r="M34" s="24"/>
+      <c r="N34" s="3"/>
       <c r="O34" s="23"/>
       <c r="AA34" s="24"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="23"/>
       <c r="M35" s="24"/>
+      <c r="N35" s="3"/>
       <c r="O35" s="23"/>
       <c r="AA35" s="24"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" s="23"/>
       <c r="M36" s="24"/>
+      <c r="N36" s="3"/>
       <c r="O36" s="23"/>
       <c r="AA36" s="24"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="23"/>
       <c r="M37" s="24"/>
+      <c r="N37" s="3"/>
       <c r="O37" s="23"/>
       <c r="AA37" s="24"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="23"/>
       <c r="M38" s="24"/>
+      <c r="N38" s="3"/>
       <c r="O38" s="23"/>
       <c r="AA38" s="24"/>
     </row>
@@ -2530,38 +2953,100 @@
       <c r="AA47" s="24"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A48" s="25"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="27"/>
-      <c r="O48" s="25"/>
-      <c r="P48" s="26"/>
-      <c r="Q48" s="26"/>
-      <c r="R48" s="26"/>
-      <c r="S48" s="26"/>
-      <c r="T48" s="26"/>
-      <c r="U48" s="26"/>
-      <c r="V48" s="26"/>
-      <c r="W48" s="26"/>
-      <c r="X48" s="26"/>
-      <c r="Y48" s="26"/>
-      <c r="Z48" s="26"/>
-      <c r="AA48" s="27"/>
+      <c r="A48" s="23"/>
+      <c r="M48" s="24"/>
+      <c r="O48" s="23"/>
+      <c r="AA48" s="24"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A49" s="23"/>
+      <c r="M49" s="24"/>
+      <c r="O49" s="23"/>
+      <c r="AA49" s="24"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A50" s="23"/>
+      <c r="M50" s="24"/>
+      <c r="O50" s="23"/>
+      <c r="AA50" s="24"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A51" s="23"/>
+      <c r="M51" s="24"/>
+      <c r="O51" s="23"/>
+      <c r="AA51" s="24"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A52" s="23"/>
+      <c r="M52" s="24"/>
+      <c r="O52" s="23"/>
+      <c r="AA52" s="24"/>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A53" s="23"/>
+      <c r="M53" s="24"/>
+      <c r="O53" s="23"/>
+      <c r="AA53" s="24"/>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A54" s="23"/>
+      <c r="M54" s="24"/>
+      <c r="O54" s="23"/>
+      <c r="AA54" s="24"/>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A55" s="23"/>
+      <c r="M55" s="24"/>
+      <c r="O55" s="23"/>
+      <c r="AA55" s="24"/>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A56" s="23"/>
+      <c r="M56" s="24"/>
+      <c r="O56" s="23"/>
+      <c r="AA56" s="24"/>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A57" s="25"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="27"/>
+      <c r="O57" s="25"/>
+      <c r="P57" s="26"/>
+      <c r="Q57" s="26"/>
+      <c r="R57" s="26"/>
+      <c r="S57" s="26"/>
+      <c r="T57" s="26"/>
+      <c r="U57" s="26"/>
+      <c r="V57" s="26"/>
+      <c r="W57" s="26"/>
+      <c r="X57" s="26"/>
+      <c r="Y57" s="26"/>
+      <c r="Z57" s="26"/>
+      <c r="AA57" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:AA1"/>
+  <mergeCells count="8">
+    <mergeCell ref="A10:AA10"/>
+    <mergeCell ref="A9:O9"/>
+    <mergeCell ref="P9:AA9"/>
+    <mergeCell ref="C2:F4"/>
+    <mergeCell ref="V2:Y4"/>
+    <mergeCell ref="A6:AA6"/>
+    <mergeCell ref="A7:O7"/>
+    <mergeCell ref="P7:AA7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="43" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>